--- a/example/photocatalysis_example_prelim-IDs.xlsx
+++ b/example/photocatalysis_example_prelim-IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlinke\MyProg_local\gh-nfdi4cat\voc4cat-tool\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EC2876-FA0D-4A89-A7E3-B9E84A664563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF47019-03B6-4CBC-AE41-7A490D6D3ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="652" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="653">
   <si>
     <t>Template version</t>
   </si>
@@ -89,7 +89,7 @@
     <t>revision</t>
   </si>
   <si>
-    <t>2023-06a</t>
+    <t>2023-08b</t>
   </si>
   <si>
     <t>This spreadsheet is a template for creating and maintaining vocabularies for linked open data. With the help of the tools voc4cat &amp; vocexcel linked below, the information in this spreadsheet can be converted into SKOS RDF files (e.g. in turtle format). The other direction is also possible: An empty template may be filled with the information from a compatible SKOS RDF data file. So SKOS data can be edited using a spreadsheet program as user interface. The column names in this template closely mirror the terms in the SKOS data model.</t>
@@ -131,7 +131,7 @@
     <t>VocPub profile for validating RDF</t>
   </si>
   <si>
-    <t>https://surroundaustralia.github.io/vocpub-profile/specification.html</t>
+    <t>https://w3id.org/profile/vocpub</t>
   </si>
   <si>
     <t>Spreadsheet Guide</t>
@@ -165,13 +165,14 @@
 Title* =  A short one line title for the vocabulary.
 Description* = A general description for the vocabulary and its scope. This can be as long as needed and may contain all possible characters and line breaks.
 Created Date* = The vocabulary's creation date.
-Modified Date = The vocabulary's latest modification date.
+Modified Date = The vocabulary's latest modification date (optional).
 Note: Dates in these cells must be recognized as date by Excel but may be in localized format.
-Creator* = The ID of an organisation e.g. "GA". 
-Publisher* = The ID of an organisation e.g. "CGI".
-Note: Either the abbreviation for an organisation or its full name can be given. The organisation is validated against a predefined list of organisations. If you miss an organisation, create an issue at https://github.com/nfdi4cat/vocexcel/issues and ask for addition.
-Version = A version specifier for this vocabulary, e.g. v2022-02-22 (it is suggested to use calendar-based vesioning)
-Provenance* = A note on the source of this vocabulary.
+Creator* = A ROR ID, an ORCID or a predefined short-ID-string for an organisation, e.g. "NFDI4Cat". 
+Publisher* = A ROR ID or a predefined short-ID-string for an organisation, e.g. "NFDI4Cat". 
+Note: Either the abbreviation for an organisation or its URI can be given. The organisation abbreviation is validated against a predefined list of organisations. If you miss an organisation, create an issue at https://github.com/nfdi4cat/vocexcel/issues and ask for addition (or just use a ROR ID!).
+Version = A version specifier for this vocabulary, e.g. v2022-02-22 (it is suggested to use calendar-based vesioning).
+Note: Versions strings should start with "v" to prevent Excel from interpreting it as number of date.
+Provenance* = A note on the source of this vocabulary. This should be an identifier for the person and a provenance note. As identifier, an ORCID ID (with or without https://orcid.org/ part) or a github name should be used. Multiple entries must be seperated with a comma. For provenance fields there is no strict validation in place because handling of provenance is still in discussion, see https://github.com/nfdi4cat/voc4cat-tool/issues/122
 Custodian = The person managing this vocabulary's content, e.g. "Sofia Garcia (orcid:0000-0001-2345-6789)"
 Catalogue PID = A catalogue PID or DOI, e.g. eCat ID, if the vocab has one.</t>
   </si>
@@ -191,7 +192,7 @@
 Alternate Labels = Any other names for this Concept. Separated by commas.
 If you want to use a comma as part of the Alternate Label, escape it with "\" like so "one\,two"
 Children URIs = A list of IRIs of children of this Concept, separated by commas. This creates a hierarchical relationship between the terms. In SKOS terminology, the Concept is broader than its Concept-Child and in turn the Concept-Child is narrower than the Concept. Note, broader/narrower are not transitive (see SKOS-primer linked in Introduction sheet).
-Provenance* = A note on the source of this Concept
+Provenance* = A note on the source of this Concept; see above for what is expected in provenance fields.
 Home Vocabulary URI = If this Concept is imported from another vocabulary, this should be that vocabulary's URI.</t>
   </si>
   <si>
@@ -213,7 +214,7 @@
 Preferred Label = A simple one-line title for the Collection.
 Definition = The defining description of this Collection that may be longer and include line-breaks.
 Member IRIs = A comma-separated list of the Concept IRIS of all Concepts belonging to this collection.
-Provenance = A note on the source of this Collection</t>
+Provenance = A note on the source of this Collection; see above for what is expected in provenance fields.</t>
   </si>
   <si>
     <t>Prefix Sheet
@@ -244,13 +245,10 @@
     <t>Vocabulary IRI*</t>
   </si>
   <si>
-    <t>https://example.org/</t>
-  </si>
-  <si>
-    <t>IRI or CURI for this vocabulary</t>
-  </si>
-  <si>
-    <t>Required: URI or CURI</t>
+    <t>IRI or CURIE for this vocabulary</t>
+  </si>
+  <si>
+    <t>Required: URI or CURIE</t>
   </si>
   <si>
     <t>Title*</t>
@@ -286,10 +284,13 @@
     <t>Required: Date</t>
   </si>
   <si>
-    <t>Modified Date*</t>
-  </si>
-  <si>
-    <t>Date of last modification</t>
+    <t>Modified Date</t>
+  </si>
+  <si>
+    <t>Date of last modification (or empty cell)</t>
+  </si>
+  <si>
+    <t>Optional: Date</t>
   </si>
   <si>
     <t>Creator*</t>
@@ -310,10 +311,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>v2023-06-29</t>
-  </si>
-  <si>
-    <t>Version specifier for the vocabulary</t>
+    <t>Version specifier for the vocabulary (or empty cell)</t>
   </si>
   <si>
     <t>Optional: Text</t>
@@ -338,15 +336,15 @@
     <t>Vocabulary Content Manager</t>
   </si>
   <si>
-    <t>Optional</t>
-  </si>
-  <si>
     <t>Catalogue PID</t>
   </si>
   <si>
     <t>Catalogue PID or DIO e.g. eCat ID</t>
   </si>
   <si>
+    <t>Optional: URI or Text</t>
+  </si>
+  <si>
     <t>Concepts*</t>
   </si>
   <si>
@@ -557,7 +555,7 @@
     <t>modification technique</t>
   </si>
   <si>
-    <t xml:space="preserve">Tecniques used to modify the properties of a photocatalyst, with the aim to increase its efficiency in a photocatalytic application. </t>
+    <t xml:space="preserve">Techniques used to modify the properties of a photocatalyst, with the aim to increase its efficiency in a photocatalytic application. </t>
   </si>
   <si>
     <t>temp:014</t>
@@ -694,7 +692,7 @@
     <t>substrate</t>
   </si>
   <si>
-    <t xml:space="preserve">The substrate onto which a (powdered) photocatalyst is deposited. Such substrates incude glass surfaces (e.g., borosilicate glass or conductive glass like ITO and FTO), ceramic substrates (e.g., alumina) or metal substrates (e.g., Ti foils, stainless steel etc.) </t>
+    <t xml:space="preserve">The substrate onto which a (powdered) photocatalyst is deposited. Such substrates include glass surfaces (e.g., borosilicate glass or conductive glass like ITO and FTO), ceramic substrates (e.g., alumina) or metal substrates (e.g., Ti foils, stainless steel etc.) </t>
   </si>
   <si>
     <t>temp:024, temp:032</t>
@@ -886,7 +884,7 @@
     <t>deposited sample</t>
   </si>
   <si>
-    <t>A thin film of the photocatalyst deposited on an appropiate for the application substrate.</t>
+    <t>A thin film of the photocatalyst deposited on an appropriate for the application substrate.</t>
   </si>
   <si>
     <t>temp:038, temp:039</t>
@@ -1412,7 +1410,7 @@
     <t>desorption</t>
   </si>
   <si>
-    <t>The process under which reactants, intermediates and products are released from the surface of the photocatalyst. Desoprtion can be faciliated by an increase in temparature or a change in the pH.</t>
+    <t>The process under which reactants, intermediates and products are released from the surface of the photocatalyst. Desoprtion can be facilitated by an increase in temperature or a change in the pH.</t>
   </si>
   <si>
     <t>https://w3id.org/nfdi4cat/voc4cat_0000094</t>
@@ -1730,7 +1728,7 @@
     <t>mercury-xenon lamp</t>
   </si>
   <si>
-    <t xml:space="preserve">A lamp containg a mixture of mercury (Hg) and xenon (Xe) gases. Under electric current, the gas mixture gets ionized through a discharge electric charge creating a plasma generating UV and visible light. </t>
+    <t xml:space="preserve">A lamp containing a mixture of mercury (Hg) and xenon (Xe) gases. Under electric current, the gas mixture gets ionized through a discharge electric charge creating a plasma generating UV and visible light. </t>
   </si>
   <si>
     <t>Hg-Xe lamp,
@@ -1747,7 +1745,7 @@
     <t>xenon lamp</t>
   </si>
   <si>
-    <t xml:space="preserve">A lamp containg pure xenon (Xe) gas. Under electric current, the gas mixture gets ionized through a discharge electric charge creating a plasma generating UV and visible light. </t>
+    <t xml:space="preserve">A lamp containing pure xenon (Xe) gas. Under electric current, the gas mixture gets ionized through a discharge electric charge creating a plasma generating UV and visible light. </t>
   </si>
   <si>
     <t>Xe lamp,
@@ -1958,186 +1956,6 @@
   </si>
   <si>
     <t>A collection of concepts referring to material  characterization techniques and methods to evaluate their efficiency in photocatalysis.</t>
-  </si>
-  <si>
-    <t>Prefix</t>
-  </si>
-  <si>
-    <t>Namespace</t>
-  </si>
-  <si>
-    <t>brick</t>
-  </si>
-  <si>
-    <t>https://brickschema.org/schema/Brick#</t>
-  </si>
-  <si>
-    <t>csvw</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/csvw#</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/elements/1.1/</t>
-  </si>
-  <si>
-    <t>dcat</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/dcat#</t>
-  </si>
-  <si>
-    <t>dcmitype</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/dcmitype/</t>
-  </si>
-  <si>
-    <t>dcterms</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms/</t>
-  </si>
-  <si>
-    <t>dcam</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/dcam/</t>
-  </si>
-  <si>
-    <t>doap</t>
-  </si>
-  <si>
-    <t>http://usefulinc.com/ns/doap#</t>
-  </si>
-  <si>
-    <t>foaf</t>
-  </si>
-  <si>
-    <t>http://xmlns.com/foaf/0.1/</t>
-  </si>
-  <si>
-    <t>geo</t>
-  </si>
-  <si>
-    <t>http://www.opengis.net/ont/geosparql#</t>
-  </si>
-  <si>
-    <t>odrl</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/odrl/2/</t>
-  </si>
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/org#</t>
-  </si>
-  <si>
-    <t>prof</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/dx/prof/</t>
-  </si>
-  <si>
-    <t>prov</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/prov#</t>
-  </si>
-  <si>
-    <t>qb</t>
-  </si>
-  <si>
-    <t>http://purl.org/linked-data/cube#</t>
-  </si>
-  <si>
-    <t>schema</t>
-  </si>
-  <si>
-    <t>https://schema.org/</t>
-  </si>
-  <si>
-    <t>sh</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/shacl#</t>
-  </si>
-  <si>
-    <t>skos</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2004/02/skos/core#</t>
-  </si>
-  <si>
-    <t>sosa</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/sosa/</t>
-  </si>
-  <si>
-    <t>ssn</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/ssn/</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2006/time#</t>
-  </si>
-  <si>
-    <t>vann</t>
-  </si>
-  <si>
-    <t>http://purl.org/vocab/vann/</t>
-  </si>
-  <si>
-    <t>void</t>
-  </si>
-  <si>
-    <t>http://rdfs.org/ns/void#</t>
-  </si>
-  <si>
-    <t>wgs</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/2003/01/geo/wgs84_pos#</t>
-  </si>
-  <si>
-    <t>owl</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#</t>
-  </si>
-  <si>
-    <t>rdf</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
-  </si>
-  <si>
-    <t>rdfs</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2000/01/rdf-schema#</t>
-  </si>
-  <si>
-    <t>xsd</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2001/XMLSchema#</t>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/XML/1998/namespace</t>
   </si>
   <si>
     <t>temp:045,
@@ -2160,6 +1978,189 @@
 temp:080,
 temp:081,
 temp:082</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Namespace</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <t>https://brickschema.org/schema/Brick#</t>
+  </si>
+  <si>
+    <t>csvw</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/csvw#</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/elements/1.1/</t>
+  </si>
+  <si>
+    <t>dcat</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/dcat#</t>
+  </si>
+  <si>
+    <t>dcmitype</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/dcmitype/</t>
+  </si>
+  <si>
+    <t>dcterms</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/</t>
+  </si>
+  <si>
+    <t>dcam</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/dcam/</t>
+  </si>
+  <si>
+    <t>doap</t>
+  </si>
+  <si>
+    <t>http://usefulinc.com/ns/doap#</t>
+  </si>
+  <si>
+    <t>foaf</t>
+  </si>
+  <si>
+    <t>http://xmlns.com/foaf/0.1/</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>http://www.opengis.net/ont/geosparql#</t>
+  </si>
+  <si>
+    <t>odrl</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/odrl/2/</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#</t>
+  </si>
+  <si>
+    <t>prof</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/dx/prof/</t>
+  </si>
+  <si>
+    <t>prov</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/prov#</t>
+  </si>
+  <si>
+    <t>qb</t>
+  </si>
+  <si>
+    <t>http://purl.org/linked-data/cube#</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>https://schema.org/</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/shacl#</t>
+  </si>
+  <si>
+    <t>skos</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#</t>
+  </si>
+  <si>
+    <t>sosa</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/sosa/</t>
+  </si>
+  <si>
+    <t>ssn</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/ssn/</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2006/time#</t>
+  </si>
+  <si>
+    <t>vann</t>
+  </si>
+  <si>
+    <t>http://purl.org/vocab/vann/</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>http://rdfs.org/ns/void#</t>
+  </si>
+  <si>
+    <t>wgs</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/2003/01/geo/wgs84_pos#</t>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+  </si>
+  <si>
+    <t>rdfs</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2000/01/rdf-schema#</t>
+  </si>
+  <si>
+    <t>xsd</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/XML/1998/namespace</t>
+  </si>
+  <si>
+    <t>https://example.org/</t>
   </si>
 </sst>
 </file>
@@ -2348,7 +2349,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2418,9 +2419,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2533,26 +2531,10 @@
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top"/>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <border outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" wrapText="1"/>
@@ -2658,7 +2640,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Def. Language Code" dataDxfId="19"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Alternate Labels" dataDxfId="18"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Children IRIs" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Provenance*" dataDxfId="16" dataCellStyle="20 % - Akzent4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Provenance*" dataDxfId="16"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Source Vocab URI" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2666,8 +2648,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="concept_relations" displayName="concept_relations" ref="A2:F181" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A2:F181" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="concept_relations" displayName="concept_relations" ref="A2:F109" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A2:F109" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Concept IRI*"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Related Matches"/>
@@ -2681,8 +2663,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="collections" displayName="collections" ref="A2:E19" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A2:E19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="collections" displayName="collections" ref="A2:E20" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A2:E20" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Collection IRI" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Preferred Label" dataDxfId="10"/>
@@ -2695,8 +2677,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="prefixes" displayName="prefixes" ref="A1:B31" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:B31" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="prefixes" displayName="prefixes" ref="A1:B30" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Prefix"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Namespace"/>
@@ -3008,7 +2990,7 @@
   <dimension ref="A11:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3042,65 +3024,65 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -3184,9 +3166,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1170"/>
+  <dimension ref="A1:J1172"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:J88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3197,61 +3181,61 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -3315,1490 +3299,1510 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+    </row>
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-    </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-    </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
     </row>
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
     </row>
     <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
     </row>
     <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
     </row>
     <row r="65" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
     </row>
     <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
     </row>
     <row r="67" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
     </row>
     <row r="68" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
     </row>
     <row r="69" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
     </row>
     <row r="70" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
     </row>
     <row r="71" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
     </row>
     <row r="72" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
     </row>
     <row r="73" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
     </row>
     <row r="74" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
     </row>
     <row r="75" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
     </row>
     <row r="76" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
     </row>
     <row r="77" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
     </row>
     <row r="78" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
     </row>
     <row r="79" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
     </row>
     <row r="80" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
     </row>
     <row r="81" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
     </row>
     <row r="82" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
     </row>
     <row r="83" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
     </row>
     <row r="84" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
     </row>
     <row r="85" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
     </row>
     <row r="86" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-    </row>
-    <row r="87" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+    </row>
+    <row r="87" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+    </row>
     <row r="88" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+    </row>
+    <row r="89" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-    </row>
-    <row r="89" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-    </row>
-    <row r="90" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
     </row>
     <row r="91" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
     </row>
     <row r="92" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="27"/>
     </row>
     <row r="93" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
     </row>
     <row r="94" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="27"/>
     </row>
     <row r="95" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
     </row>
     <row r="96" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
     </row>
     <row r="97" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="28"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
     </row>
     <row r="98" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
     </row>
     <row r="99" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
     </row>
     <row r="100" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
     </row>
     <row r="101" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
     </row>
     <row r="102" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
     </row>
     <row r="103" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="28"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
     </row>
     <row r="104" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
     </row>
     <row r="105" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="28"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
     </row>
     <row r="106" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="27"/>
     </row>
     <row r="107" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="27"/>
     </row>
     <row r="108" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="28"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27"/>
     </row>
     <row r="109" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="27"/>
     </row>
     <row r="110" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="28"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
     </row>
     <row r="111" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="28"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="27"/>
     </row>
     <row r="112" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="28"/>
-      <c r="J112" s="28"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
     </row>
     <row r="113" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="27"/>
     </row>
     <row r="114" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
-      <c r="J114" s="28"/>
-    </row>
-    <row r="115" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
+    </row>
+    <row r="115" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="27"/>
+    </row>
     <row r="116" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="27" t="s">
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
+      <c r="J116" s="27"/>
+    </row>
+    <row r="117" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28"/>
-    </row>
-    <row r="117" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="28"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="28"/>
-      <c r="I117" s="28"/>
-      <c r="J117" s="28"/>
-    </row>
-    <row r="118" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="28"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="28"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="27"/>
     </row>
     <row r="119" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="28"/>
-      <c r="I119" s="28"/>
-      <c r="J119" s="28"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
     </row>
     <row r="120" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="28"/>
-      <c r="J120" s="28"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="27"/>
+      <c r="J120" s="27"/>
     </row>
     <row r="121" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="28"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="28"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="27"/>
     </row>
     <row r="122" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="28"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="28"/>
-      <c r="J122" s="28"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="27"/>
     </row>
     <row r="123" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="28"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="28"/>
-      <c r="J123" s="28"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
     </row>
     <row r="124" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="28"/>
-      <c r="J124" s="28"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
+      <c r="I124" s="27"/>
+      <c r="J124" s="27"/>
     </row>
     <row r="125" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="28"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="28"/>
-      <c r="J125" s="28"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="27"/>
     </row>
     <row r="126" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="28"/>
-      <c r="J126" s="28"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="27"/>
     </row>
     <row r="127" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="28"/>
-      <c r="J127" s="28"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="27"/>
     </row>
     <row r="128" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="28"/>
-      <c r="J128" s="28"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="27"/>
     </row>
     <row r="129" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="28"/>
-      <c r="I129" s="28"/>
-      <c r="J129" s="28"/>
-    </row>
-    <row r="130" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="27"/>
+    </row>
+    <row r="130" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="27"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
+    </row>
     <row r="131" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="27" t="s">
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="27"/>
+    </row>
+    <row r="132" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="28"/>
-      <c r="I131" s="28"/>
-      <c r="J131" s="28"/>
-    </row>
-    <row r="132" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="28"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="28"/>
-      <c r="G132" s="28"/>
-      <c r="H132" s="28"/>
-      <c r="I132" s="28"/>
-      <c r="J132" s="28"/>
-    </row>
-    <row r="133" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="28"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="27"/>
     </row>
     <row r="134" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="28"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="28"/>
-      <c r="J134" s="28"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="27"/>
     </row>
     <row r="135" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="28"/>
-      <c r="J135" s="28"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="27"/>
     </row>
     <row r="136" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="28"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
-      <c r="H136" s="28"/>
-      <c r="I136" s="28"/>
-      <c r="J136" s="28"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="27"/>
     </row>
     <row r="137" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="28"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
-      <c r="H137" s="28"/>
-      <c r="I137" s="28"/>
-      <c r="J137" s="28"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="27"/>
     </row>
     <row r="138" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="28"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
-      <c r="H138" s="28"/>
-      <c r="I138" s="28"/>
-      <c r="J138" s="28"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="27"/>
     </row>
     <row r="139" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
-      <c r="H139" s="28"/>
-      <c r="I139" s="28"/>
-      <c r="J139" s="28"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="27"/>
     </row>
     <row r="140" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
-      <c r="H140" s="28"/>
-      <c r="I140" s="28"/>
-      <c r="J140" s="28"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="27"/>
     </row>
     <row r="141" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="28"/>
-      <c r="J141" s="28"/>
-    </row>
-    <row r="142" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="27"/>
+    </row>
+    <row r="142" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="27"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="27"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="27"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="27"/>
+    </row>
     <row r="143" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="29" t="s">
+      <c r="B143" s="27"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="27"/>
+      <c r="J143" s="27"/>
+    </row>
+    <row r="144" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="28"/>
-      <c r="J143" s="28"/>
-    </row>
-    <row r="144" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="28"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
-      <c r="E144" s="28"/>
-      <c r="F144" s="28"/>
-      <c r="G144" s="28"/>
-      <c r="H144" s="28"/>
-      <c r="I144" s="28"/>
-      <c r="J144" s="28"/>
-    </row>
-    <row r="145" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="28"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="28"/>
-      <c r="J145" s="28"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="27"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="27"/>
+      <c r="J145" s="27"/>
     </row>
     <row r="146" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="28"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="28"/>
-      <c r="J146" s="28"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
+      <c r="J146" s="27"/>
     </row>
     <row r="147" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="28"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="28"/>
-      <c r="J147" s="28"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="27"/>
     </row>
     <row r="148" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D148" s="21" t="s">
+      <c r="B148" s="27"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
+      <c r="J148" s="27"/>
+    </row>
+    <row r="149" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="27"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="27"/>
+    </row>
+    <row r="150" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D150" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E148" s="10" t="s">
+      <c r="E150" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D149" s="21" t="s">
+    <row r="151" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D151" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E149" s="10" t="s">
+      <c r="E151" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="152" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="153" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="154" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5818,51 +5822,53 @@
     <row r="1168" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1169" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1170" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1171" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1172" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B143:J147"/>
-    <mergeCell ref="B131:J141"/>
-    <mergeCell ref="B46:J86"/>
-    <mergeCell ref="B116:J129"/>
-    <mergeCell ref="B12:J44"/>
+    <mergeCell ref="B90:J116"/>
+    <mergeCell ref="B145:J149"/>
     <mergeCell ref="B2:J6"/>
-    <mergeCell ref="B88:J114"/>
+    <mergeCell ref="B133:J143"/>
+    <mergeCell ref="B48:J88"/>
+    <mergeCell ref="B118:J131"/>
+    <mergeCell ref="B12:J46"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:B4 B46:B86">
+  <conditionalFormatting sqref="B2:B4 B48:B88">
     <cfRule type="containsBlanks" dxfId="5" priority="7">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B44">
+  <conditionalFormatting sqref="B12:B46">
     <cfRule type="containsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(B12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B90">
     <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(B88))=0</formula>
+      <formula>LEN(TRIM(B90))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B116">
+  <conditionalFormatting sqref="B118">
     <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(B116))=0</formula>
+      <formula>LEN(TRIM(B118))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
+  <conditionalFormatting sqref="B133">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(B131))=0</formula>
+      <formula>LEN(TRIM(B133))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B143:B147">
+  <conditionalFormatting sqref="B145:B149">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B143))=0</formula>
+      <formula>LEN(TRIM(B145))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="D10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E148" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E149" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E150" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E151" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5876,7 +5882,7 @@
   </sheetPr>
   <dimension ref="A1:D994"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5885,7 +5891,7 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="64.140625" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5898,69 +5904,67 @@
         <v>36</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>46</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5995,54 +5999,52 @@
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="14" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="D11" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7040,11 +7042,11 @@
   </sheetPr>
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="50.140625" customWidth="1"/>
@@ -7057,2853 +7059,2853 @@
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
       <c r="C3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="I3" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
         <v>88</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
         <v>93</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>100</v>
+      <c r="H6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
         <v>106</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
         <v>111</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>114</v>
+      <c r="H9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="E10" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>118</v>
+      <c r="H10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
         <v>119</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
         <v>124</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
         <v>129</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" t="s">
         <v>134</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
         <v>139</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="E15" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="E16" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>146</v>
+      <c r="H16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
         <v>147</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="E17" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
         <v>152</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="E18" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>158</v>
-      </c>
       <c r="E19" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>159</v>
+      <c r="H19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" t="s">
         <v>160</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="E20" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" t="s">
         <v>165</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" t="s">
         <v>170</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" t="s">
         <v>175</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>177</v>
-      </c>
       <c r="E23" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>178</v>
+      <c r="H23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" t="s">
         <v>179</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="E24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" t="s">
         <v>184</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>186</v>
-      </c>
       <c r="E25" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" t="s">
         <v>189</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="E26" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" t="s">
         <v>194</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>196</v>
-      </c>
       <c r="E27" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>197</v>
+      <c r="H27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
         <v>198</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>200</v>
-      </c>
       <c r="E28" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" t="s">
         <v>203</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="E29" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="9" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" t="s">
         <v>208</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="9" t="s">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" t="s">
         <v>213</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>215</v>
-      </c>
       <c r="E31" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>216</v>
+      <c r="H31" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" t="s">
         <v>217</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="E32" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" t="s">
         <v>222</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>224</v>
-      </c>
       <c r="E33" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>225</v>
+      <c r="H33" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34" t="s">
         <v>226</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>228</v>
-      </c>
       <c r="E34" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" t="s">
         <v>231</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>233</v>
-      </c>
       <c r="E35" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>234</v>
+      <c r="H35" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" t="s">
         <v>235</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>237</v>
-      </c>
       <c r="E36" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>238</v>
+      <c r="H36" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" t="s">
         <v>239</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>241</v>
-      </c>
       <c r="E37" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>242</v>
+      <c r="H37" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" t="s">
         <v>243</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="9" t="s">
+      <c r="E38" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="9" t="s">
+      <c r="G38" s="9"/>
+      <c r="H38" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B39" t="s">
         <v>248</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>250</v>
-      </c>
       <c r="E39" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" t="s">
         <v>253</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>255</v>
-      </c>
       <c r="E40" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>256</v>
+      <c r="H40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" t="s">
         <v>257</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>259</v>
-      </c>
       <c r="E41" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="H41" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" t="s">
         <v>262</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>264</v>
-      </c>
       <c r="E42" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>265</v>
+      <c r="H42" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B43" t="s">
         <v>266</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>268</v>
-      </c>
       <c r="E43" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>269</v>
+      <c r="H43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B44" t="s">
         <v>270</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="E44" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>273</v>
+      <c r="H44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B45" t="s">
         <v>274</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>276</v>
-      </c>
       <c r="E45" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>277</v>
+      <c r="H45" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B46" t="s">
         <v>278</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>280</v>
-      </c>
       <c r="E46" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46" s="9" t="s">
         <v>281</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B47" t="s">
         <v>283</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="9" t="s">
+      <c r="E47" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47" s="9" t="s">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I47" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B48" t="s">
         <v>288</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="9" t="s">
+      <c r="E48" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="9" t="s">
+      <c r="G48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B49" t="s">
         <v>293</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="9" t="s">
+      <c r="E49" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F49" s="9" t="s">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" s="9" t="s">
         <v>296</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B50" t="s">
         <v>298</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="9" t="s">
+      <c r="E50" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50" s="9" t="s">
+      <c r="G50" s="9"/>
+      <c r="H50" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B51" t="s">
         <v>303</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="9" t="s">
+      <c r="E51" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F51" s="9" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B52" t="s">
         <v>308</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="9" t="s">
+      <c r="E52" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="E52" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="9" t="s">
+      <c r="G52" s="9"/>
+      <c r="H52" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" s="9" t="s">
         <v>311</v>
-      </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B53" t="s">
         <v>313</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="9" t="s">
+      <c r="E53" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E53" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F53" s="9" t="s">
+      <c r="G53" s="9"/>
+      <c r="H53" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B54" t="s">
         <v>318</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="9" t="s">
+      <c r="E54" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F54" s="9" t="s">
+      <c r="G54" s="9"/>
+      <c r="H54" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B55" t="s">
         <v>323</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="9" t="s">
+      <c r="E55" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F55" s="9" t="s">
+      <c r="G55" s="9"/>
+      <c r="H55" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55" s="9" t="s">
         <v>326</v>
-      </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B56" t="s">
         <v>328</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="9" t="s">
+      <c r="E56" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F56" s="9" t="s">
+      <c r="G56" s="9"/>
+      <c r="H56" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="G56" s="9"/>
-      <c r="H56" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B57" t="s">
         <v>333</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="9" t="s">
+      <c r="E57" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F57" s="9" t="s">
+      <c r="G57" s="9"/>
+      <c r="H57" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57" s="9" t="s">
         <v>336</v>
-      </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B58" t="s">
         <v>338</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="9" t="s">
+      <c r="E58" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="E58" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F58" s="9" t="s">
+      <c r="G58" s="9"/>
+      <c r="H58" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58" s="9" t="s">
         <v>341</v>
-      </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
         <v>343</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="E59" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="E59" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" s="9" t="s">
+      <c r="G59" s="9"/>
+      <c r="H59" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59" s="9" t="s">
         <v>346</v>
-      </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B60" t="s">
         <v>348</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="9" t="s">
+      <c r="E60" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="E60" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F60" s="9" t="s">
+      <c r="G60" s="9"/>
+      <c r="H60" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60" s="9" t="s">
         <v>351</v>
-      </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B61" t="s">
         <v>353</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="9" t="s">
+      <c r="E61" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E61" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" s="9" t="s">
+      <c r="G61" s="9"/>
+      <c r="H61" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I61" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B62" t="s">
         <v>358</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C62" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="9" t="s">
+      <c r="E62" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" s="9" t="s">
+      <c r="G62" s="9"/>
+      <c r="H62" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" s="9" t="s">
         <v>361</v>
-      </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B63" t="s">
         <v>363</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>365</v>
-      </c>
       <c r="E63" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
-      <c r="H63" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>366</v>
+      <c r="H63" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B64" t="s">
         <v>367</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>369</v>
-      </c>
       <c r="E64" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I64" s="9" t="s">
         <v>370</v>
-      </c>
-      <c r="H64" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B65" t="s">
         <v>372</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>374</v>
-      </c>
       <c r="E65" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
-      <c r="H65" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>375</v>
+      <c r="H65" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B66" t="s">
         <v>376</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>378</v>
-      </c>
       <c r="E66" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>379</v>
+      <c r="H66" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B67" t="s">
         <v>380</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>382</v>
-      </c>
       <c r="E67" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I67" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="H67" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B68" t="s">
         <v>385</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>387</v>
-      </c>
       <c r="E68" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
-      <c r="H68" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>388</v>
+      <c r="H68" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B69" t="s">
         <v>389</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>391</v>
-      </c>
       <c r="E69" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
-      <c r="H69" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>392</v>
+      <c r="H69" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B70" t="s">
         <v>393</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" s="9" t="s">
+      <c r="E70" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="E70" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F70" s="9" t="s">
+      <c r="G70" s="9"/>
+      <c r="H70" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70" s="9" t="s">
         <v>396</v>
-      </c>
-      <c r="G70" s="9"/>
-      <c r="H70" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B71" t="s">
         <v>398</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>400</v>
-      </c>
       <c r="E71" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>401</v>
+      <c r="H71" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B72" t="s">
         <v>402</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>404</v>
-      </c>
       <c r="E72" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I72" s="12" t="s">
-        <v>405</v>
+      <c r="H72" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B73" t="s">
         <v>406</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>408</v>
-      </c>
       <c r="E73" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>409</v>
+      <c r="H73" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B74" t="s">
         <v>410</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>412</v>
-      </c>
       <c r="E74" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>413</v>
+      <c r="H74" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="B75" t="s">
         <v>414</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>416</v>
-      </c>
       <c r="E75" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I75" s="12" t="s">
-        <v>417</v>
+      <c r="H75" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B76" t="s">
         <v>418</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="9" t="s">
+      <c r="E76" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F76" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="E76" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F76" s="9" t="s">
+      <c r="G76" s="9"/>
+      <c r="H76" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I76" s="9" t="s">
         <v>421</v>
-      </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B77" t="s">
         <v>423</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>425</v>
-      </c>
       <c r="E77" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
-      <c r="H77" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>426</v>
+      <c r="H77" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B78" t="s">
         <v>427</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="C78" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>429</v>
-      </c>
       <c r="E78" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I78" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="H78" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B79" t="s">
+        <v>431</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="C79" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="9" t="s">
+      <c r="E79" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F79" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="E79" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F79" s="9" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I79" s="9" t="s">
         <v>434</v>
-      </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B80" t="s">
         <v>436</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" s="9" t="s">
+      <c r="E80" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="E80" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F80" s="9" t="s">
+      <c r="G80" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="H80" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I80" s="9" t="s">
         <v>440</v>
-      </c>
-      <c r="H80" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I80" s="12" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B81" t="s">
         <v>442</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="C81" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>444</v>
-      </c>
       <c r="E81" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I81" s="9" t="s">
         <v>445</v>
-      </c>
-      <c r="H81" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I81" s="12" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B82" t="s">
         <v>447</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="C82" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D82" s="9" t="s">
+      <c r="E82" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="E82" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F82" s="9" t="s">
+      <c r="G82" s="9"/>
+      <c r="H82" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I82" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I82" s="12" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B83" t="s">
         <v>452</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C83" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="9" t="s">
+      <c r="E83" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F83" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="E83" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F83" s="9" t="s">
+      <c r="G83" s="9"/>
+      <c r="H83" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I83" s="9" t="s">
         <v>455</v>
-      </c>
-      <c r="G83" s="9"/>
-      <c r="H83" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I83" s="12" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B84" t="s">
         <v>457</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C84" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" s="9" t="s">
+      <c r="E84" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F84" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="E84" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F84" s="9" t="s">
+      <c r="G84" s="9"/>
+      <c r="H84" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I84" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="G84" s="9"/>
-      <c r="H84" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I84" s="12" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B85" t="s">
         <v>462</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C85" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" s="9" t="s">
+      <c r="E85" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="E85" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F85" s="9" t="s">
+      <c r="G85" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="H85" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I85" s="9" t="s">
         <v>466</v>
-      </c>
-      <c r="H85" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I85" s="12" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B86" t="s">
         <v>468</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="C86" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>470</v>
-      </c>
       <c r="E86" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
-      <c r="H86" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I86" s="12" t="s">
-        <v>471</v>
+      <c r="H86" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="B87" t="s">
         <v>472</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="C87" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>474</v>
-      </c>
       <c r="E87" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
-      <c r="H87" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I87" s="12" t="s">
-        <v>475</v>
+      <c r="H87" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B88" t="s">
         <v>476</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>478</v>
-      </c>
       <c r="E88" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
-      <c r="H88" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I88" s="12" t="s">
-        <v>479</v>
+      <c r="H88" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B89" t="s">
         <v>480</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>482</v>
-      </c>
       <c r="E89" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
-      <c r="H89" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>483</v>
+      <c r="H89" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B90" t="s">
         <v>484</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="C90" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>486</v>
-      </c>
       <c r="E90" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="H90" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I90" s="12" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="B91" t="s">
         <v>489</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="C91" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>491</v>
-      </c>
       <c r="E91" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
-      <c r="H91" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I91" s="12" t="s">
-        <v>492</v>
+      <c r="H91" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B92" t="s">
         <v>493</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="C92" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>495</v>
-      </c>
       <c r="E92" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I92" s="9" t="s">
         <v>496</v>
-      </c>
-      <c r="H92" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="B93" t="s">
         <v>498</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="C93" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>500</v>
-      </c>
       <c r="E93" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
-      <c r="H93" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I93" s="12" t="s">
-        <v>501</v>
+      <c r="H93" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="B94" t="s">
         <v>502</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="C94" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>504</v>
-      </c>
       <c r="E94" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
-      <c r="H94" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I94" s="12" t="s">
-        <v>505</v>
+      <c r="H94" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="B95" t="s">
         <v>506</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="C95" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>508</v>
-      </c>
       <c r="E95" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I95" s="9" t="s">
         <v>509</v>
-      </c>
-      <c r="H95" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I95" s="12" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="B96" t="s">
         <v>511</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="C96" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>513</v>
-      </c>
       <c r="E96" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I96" s="9" t="s">
         <v>514</v>
-      </c>
-      <c r="H96" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I96" s="12" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="B97" t="s">
         <v>516</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C97" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D97" s="9" t="s">
+      <c r="E97" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F97" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="E97" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F97" s="9" t="s">
+      <c r="G97" s="9"/>
+      <c r="H97" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I97" s="9" t="s">
         <v>519</v>
-      </c>
-      <c r="G97" s="9"/>
-      <c r="H97" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I97" s="12" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B98" t="s">
         <v>521</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="C98" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D98" s="9" t="s">
+      <c r="E98" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F98" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="E98" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F98" s="9" t="s">
+      <c r="G98" s="9"/>
+      <c r="H98" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I98" s="9" t="s">
         <v>524</v>
-      </c>
-      <c r="G98" s="9"/>
-      <c r="H98" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I98" s="12" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="B99" t="s">
         <v>526</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="C99" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D99" s="9" t="s">
+      <c r="E99" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F99" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="E99" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F99" s="9" t="s">
+      <c r="G99" s="9"/>
+      <c r="H99" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I99" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="G99" s="9"/>
-      <c r="H99" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I99" s="12" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="B100" t="s">
         <v>531</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="C100" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>533</v>
-      </c>
       <c r="E100" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I100" s="9" t="s">
         <v>534</v>
-      </c>
-      <c r="H100" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="B101" t="s">
         <v>536</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="C101" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>538</v>
-      </c>
       <c r="E101" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
-      <c r="H101" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I101" s="12" t="s">
-        <v>539</v>
+      <c r="H101" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="B102" t="s">
         <v>540</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="C102" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>542</v>
-      </c>
       <c r="E102" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
-      <c r="H102" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I102" s="12" t="s">
-        <v>543</v>
+      <c r="H102" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="B103" t="s">
         <v>544</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="C103" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>546</v>
-      </c>
       <c r="E103" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
-      <c r="H103" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I103" s="12" t="s">
-        <v>547</v>
+      <c r="H103" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="B104" t="s">
         <v>548</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="C104" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>550</v>
-      </c>
       <c r="E104" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
-      <c r="H104" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I104" s="12" t="s">
-        <v>551</v>
+      <c r="H104" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="B105" t="s">
         <v>552</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>554</v>
-      </c>
       <c r="E105" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
-      <c r="H105" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I105" s="12" t="s">
-        <v>555</v>
+      <c r="H105" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="B106" t="s">
         <v>556</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="C106" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D106" s="9" t="s">
+      <c r="E106" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F106" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="E106" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F106" s="9" t="s">
+      <c r="G106" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="G106" s="9" t="s">
+      <c r="H106" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I106" s="9" t="s">
         <v>560</v>
-      </c>
-      <c r="H106" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I106" s="12" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B107" t="s">
         <v>562</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="C107" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D107" s="9" t="s">
+      <c r="E107" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F107" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="E107" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F107" s="9" t="s">
+      <c r="G107" s="9"/>
+      <c r="H107" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I107" s="9" t="s">
         <v>565</v>
-      </c>
-      <c r="G107" s="9"/>
-      <c r="H107" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I107" s="12" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="B108" t="s">
         <v>567</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="C108" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D108" s="9" t="s">
+      <c r="E108" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F108" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="E108" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F108" s="9" t="s">
+      <c r="G108" s="9"/>
+      <c r="H108" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I108" s="9" t="s">
         <v>570</v>
-      </c>
-      <c r="G108" s="9"/>
-      <c r="H108" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I108" s="12" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="B109" t="s">
         <v>572</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="C109" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D109" s="9" t="s">
+      <c r="E109" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F109" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="E109" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F109" s="9" t="s">
+      <c r="G109" s="9"/>
+      <c r="H109" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I109" s="9" t="s">
         <v>575</v>
-      </c>
-      <c r="G109" s="9"/>
-      <c r="H109" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I109" s="12" t="s">
-        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -9924,7 +9926,7 @@
   <dimension ref="A1:F485"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A181"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9935,27 +9937,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10458,10 +10460,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10475,41 +10477,41 @@
   <sheetData>
     <row r="1" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>86</v>
+      <c r="E3" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -10623,6 +10625,13 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10641,7 +10650,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10657,7 +10666,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>594</v>
       </c>
@@ -10665,7 +10674,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>596</v>
       </c>
@@ -10891,7 +10900,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" showErrorMessage="1" errorTitle="Prefix ends with colon" error="A prefix may not end with a colon(:)!" sqref="A2:A31" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="custom" showErrorMessage="1" errorTitle="Prefix ends with colon" error="A prefix may not end with a colon(:)!" sqref="A2:A30" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>ISERROR(SEARCH(":",A2))</formula1>
     </dataValidation>
   </dataValidations>
